--- a/GroceryApp/src/main/resources/UploadFile/Data.xlsx
+++ b/GroceryApp/src/main/resources/UploadFile/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INDU M\eclipse-workspace\GroceryApp\src\main\resources\UploadFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INDU M\git\GroceryApp\GroceryApp\src\main\resources\UploadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF250D6-38FB-44B2-B2EA-B08C5CF9D098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457F8751-1E82-48AB-9718-02CBD8009B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>admin</t>
   </si>
@@ -345,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -361,14 +361,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
